--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt1-Fzd3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Wnt1</t>
   </si>
   <si>
     <t>Fzd3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H2">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2590246666666667</v>
+        <v>0.274713</v>
       </c>
       <c r="N2">
-        <v>0.777074</v>
+        <v>0.824139</v>
       </c>
       <c r="O2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="P2">
-        <v>0.1073177818850196</v>
+        <v>0.1055967877339779</v>
       </c>
       <c r="Q2">
-        <v>0.006034238634666667</v>
+        <v>0.025740882813</v>
       </c>
       <c r="R2">
-        <v>0.05430814771200001</v>
+        <v>0.231667945317</v>
       </c>
       <c r="S2">
-        <v>0.1073177818850196</v>
+        <v>0.07006312433145777</v>
       </c>
       <c r="T2">
-        <v>0.1073177818850196</v>
+        <v>0.07006312433145777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H3">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>2.666015</v>
       </c>
       <c r="O3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058637</v>
       </c>
       <c r="P3">
-        <v>0.3681899230603399</v>
+        <v>0.3415960415058638</v>
       </c>
       <c r="Q3">
-        <v>0.02070249514666667</v>
+        <v>0.08326942383833333</v>
       </c>
       <c r="R3">
-        <v>0.18632245632</v>
+        <v>0.7494248145449999</v>
       </c>
       <c r="S3">
-        <v>0.3681899230603399</v>
+        <v>0.2266478596626678</v>
       </c>
       <c r="T3">
-        <v>0.3681899230603399</v>
+        <v>0.2266478596626678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.023296</v>
+        <v>0.09370099999999999</v>
       </c>
       <c r="H4">
-        <v>0.06988800000000001</v>
+        <v>0.281103</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6634967391997054</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.265788666666667</v>
+        <v>1.438143333333333</v>
       </c>
       <c r="N4">
-        <v>3.797366</v>
+        <v>4.31443</v>
       </c>
       <c r="O4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="P4">
-        <v>0.524435119596833</v>
+        <v>0.5528071707601584</v>
       </c>
       <c r="Q4">
-        <v>0.02948781277866667</v>
+        <v>0.1347554684766667</v>
       </c>
       <c r="R4">
-        <v>0.265390315008</v>
+        <v>1.21279921629</v>
       </c>
       <c r="S4">
-        <v>0.524435119596833</v>
+        <v>0.3667857552055798</v>
       </c>
       <c r="T4">
-        <v>0.524435119596833</v>
+        <v>0.3667857552055798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +726,350 @@
         <v>0.06988800000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1649589656075852</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1649589656075852</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.274713</v>
+      </c>
+      <c r="N5">
+        <v>0.824139</v>
+      </c>
+      <c r="O5">
+        <v>0.1055967877339779</v>
+      </c>
+      <c r="P5">
+        <v>0.1055967877339779</v>
+      </c>
+      <c r="Q5">
+        <v>0.006399714048</v>
+      </c>
+      <c r="R5">
+        <v>0.057597426432</v>
+      </c>
+      <c r="S5">
+        <v>0.01741913687608073</v>
+      </c>
+      <c r="T5">
+        <v>0.01741913687608073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.000138</v>
-      </c>
-      <c r="N5">
-        <v>0.000414</v>
-      </c>
-      <c r="O5">
-        <v>5.71754578076195E-05</v>
-      </c>
-      <c r="P5">
-        <v>5.717545780761951E-05</v>
-      </c>
-      <c r="Q5">
-        <v>3.214848E-06</v>
-      </c>
-      <c r="R5">
-        <v>2.8933632E-05</v>
-      </c>
-      <c r="S5">
-        <v>5.71754578076195E-05</v>
-      </c>
-      <c r="T5">
-        <v>5.717545780761951E-05</v>
+      <c r="G6">
+        <v>0.023296</v>
+      </c>
+      <c r="H6">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J6">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.8886716666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.666015</v>
+      </c>
+      <c r="O6">
+        <v>0.3415960415058637</v>
+      </c>
+      <c r="P6">
+        <v>0.3415960415058638</v>
+      </c>
+      <c r="Q6">
+        <v>0.02070249514666667</v>
+      </c>
+      <c r="R6">
+        <v>0.18632245632</v>
+      </c>
+      <c r="S6">
+        <v>0.05634932966245301</v>
+      </c>
+      <c r="T6">
+        <v>0.05634932966245301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.023296</v>
+      </c>
+      <c r="H7">
+        <v>0.06988800000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="J7">
+        <v>0.1649589656075852</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.438143333333333</v>
+      </c>
+      <c r="N7">
+        <v>4.31443</v>
+      </c>
+      <c r="O7">
+        <v>0.5528071707601584</v>
+      </c>
+      <c r="P7">
+        <v>0.5528071707601584</v>
+      </c>
+      <c r="Q7">
+        <v>0.03350298709333333</v>
+      </c>
+      <c r="R7">
+        <v>0.30152688384</v>
+      </c>
+      <c r="S7">
+        <v>0.09119049906905144</v>
+      </c>
+      <c r="T7">
+        <v>0.09119049906905143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.024226</v>
+      </c>
+      <c r="H8">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J8">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.274713</v>
+      </c>
+      <c r="N8">
+        <v>0.824139</v>
+      </c>
+      <c r="O8">
+        <v>0.1055967877339779</v>
+      </c>
+      <c r="P8">
+        <v>0.1055967877339779</v>
+      </c>
+      <c r="Q8">
+        <v>0.006655197138</v>
+      </c>
+      <c r="R8">
+        <v>0.059896774242</v>
+      </c>
+      <c r="S8">
+        <v>0.01811452652643938</v>
+      </c>
+      <c r="T8">
+        <v>0.01811452652643938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.024226</v>
+      </c>
+      <c r="H9">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J9">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8886716666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.666015</v>
+      </c>
+      <c r="O9">
+        <v>0.3415960415058637</v>
+      </c>
+      <c r="P9">
+        <v>0.3415960415058638</v>
+      </c>
+      <c r="Q9">
+        <v>0.02152895979666667</v>
+      </c>
+      <c r="R9">
+        <v>0.19376063817</v>
+      </c>
+      <c r="S9">
+        <v>0.0585988521807429</v>
+      </c>
+      <c r="T9">
+        <v>0.05859885218074291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.024226</v>
+      </c>
+      <c r="H10">
+        <v>0.07267800000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="J10">
+        <v>0.1715442951927094</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.438143333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.31443</v>
+      </c>
+      <c r="O10">
+        <v>0.5528071707601584</v>
+      </c>
+      <c r="P10">
+        <v>0.5528071707601584</v>
+      </c>
+      <c r="Q10">
+        <v>0.03484046039333333</v>
+      </c>
+      <c r="R10">
+        <v>0.31356414354</v>
+      </c>
+      <c r="S10">
+        <v>0.09483091648552713</v>
+      </c>
+      <c r="T10">
+        <v>0.09483091648552713</v>
       </c>
     </row>
   </sheetData>
